--- a/evaluation/preds/LW_score_data.xlsx
+++ b/evaluation/preds/LW_score_data.xlsx
@@ -18854,7 +18854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J481"/>
+  <dimension ref="A1:J541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31158,7 +31158,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -31192,7 +31192,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -31226,7 +31226,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -31260,7 +31260,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -31290,11 +31290,11 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D366" t="n">
@@ -31324,24 +31324,24 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D367" t="n">
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F367" t="n">
         <v>1</v>
       </c>
       <c r="G367" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H367" t="n">
         <v>1</v>
@@ -31350,7 +31350,7 @@
         <v>1</v>
       </c>
       <c r="J367" t="n">
-        <v>1</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="368">
@@ -31358,24 +31358,24 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D368" t="n">
         <v>1</v>
       </c>
       <c r="E368" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F368" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G368" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H368" t="n">
         <v>1</v>
@@ -31384,7 +31384,7 @@
         <v>1</v>
       </c>
       <c r="J368" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -31392,11 +31392,11 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -31415,10 +31415,10 @@
         <v>1</v>
       </c>
       <c r="I369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J369" t="n">
-        <v>3</v>
+        <v>3.166666666666667</v>
       </c>
     </row>
     <row r="370">
@@ -31426,21 +31426,21 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
       </c>
       <c r="F370" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G370" t="n">
         <v>5</v>
@@ -31449,7 +31449,7 @@
         <v>1</v>
       </c>
       <c r="I370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J370" t="n">
         <v>3</v>
@@ -31460,15 +31460,15 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -31480,13 +31480,13 @@
         <v>5</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I371" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J371" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="372">
@@ -31494,11 +31494,11 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -31508,7 +31508,7 @@
         <v>5</v>
       </c>
       <c r="F372" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G372" t="n">
         <v>5</v>
@@ -31517,10 +31517,10 @@
         <v>1</v>
       </c>
       <c r="I372" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J372" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="373">
@@ -31528,33 +31528,33 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E373" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F373" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G373" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H373" t="n">
         <v>1</v>
       </c>
       <c r="I373" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J373" t="n">
-        <v>1</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="374">
@@ -31562,33 +31562,33 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E374" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F374" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G374" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I374" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J374" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -31596,21 +31596,21 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
       </c>
       <c r="F375" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G375" t="n">
         <v>5</v>
@@ -31622,7 +31622,7 @@
         <v>4</v>
       </c>
       <c r="J375" t="n">
-        <v>4.5</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="376">
@@ -31630,33 +31630,33 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E376" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F376" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G376" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I376" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J376" t="n">
-        <v>2.666666666666667</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="377">
@@ -31664,33 +31664,33 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>126</v>
+        <v>261</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E377" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F377" t="n">
         <v>4</v>
       </c>
       <c r="G377" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H377" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I377" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J377" t="n">
-        <v>4.166666666666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -31698,33 +31698,33 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
       </c>
       <c r="F378" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G378" t="n">
         <v>5</v>
       </c>
       <c r="H378" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I378" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J378" t="n">
-        <v>4.833333333333333</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="379">
@@ -31732,33 +31732,33 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>184</v>
+        <v>318</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
       </c>
       <c r="F379" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G379" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I379" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J379" t="n">
-        <v>4.333333333333333</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="380">
@@ -31766,33 +31766,33 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>246</v>
+        <v>378</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D380" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
       </c>
       <c r="F380" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G380" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I380" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J380" t="n">
-        <v>3.5</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="381">
@@ -31800,15 +31800,15 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>261</v>
+        <v>568</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -31820,13 +31820,13 @@
         <v>4</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I381" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J381" t="n">
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382">
@@ -31834,33 +31834,33 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>318</v>
+        <v>588</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E382" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F382" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G382" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J382" t="n">
-        <v>3.833333333333333</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="383">
@@ -31868,18 +31868,18 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>378</v>
+        <v>599</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D383" t="n">
         <v>5</v>
       </c>
       <c r="E383" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F383" t="n">
         <v>5</v>
@@ -31888,13 +31888,13 @@
         <v>5</v>
       </c>
       <c r="H383" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I383" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J383" t="n">
-        <v>4.666666666666667</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="384">
@@ -31902,33 +31902,33 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>453</v>
+        <v>626</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D384" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
       </c>
       <c r="F384" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G384" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J384" t="n">
-        <v>4.333333333333333</v>
+        <v>3.166666666666667</v>
       </c>
     </row>
     <row r="385">
@@ -31936,11 +31936,11 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>456</v>
+        <v>642</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -31950,19 +31950,19 @@
         <v>5</v>
       </c>
       <c r="F385" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G385" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I385" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J385" t="n">
-        <v>4.166666666666667</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386">
@@ -31970,11 +31970,11 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>467</v>
+        <v>643</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D386" t="n">
@@ -31990,13 +31990,13 @@
         <v>5</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I386" t="n">
         <v>5</v>
       </c>
       <c r="J386" t="n">
-        <v>4.666666666666667</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="387">
@@ -32004,33 +32004,33 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>518</v>
+        <v>649</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D387" t="n">
         <v>5</v>
       </c>
       <c r="E387" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F387" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G387" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H387" t="n">
         <v>4</v>
       </c>
       <c r="I387" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J387" t="n">
-        <v>4.166666666666667</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="388">
@@ -32038,33 +32038,33 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>546</v>
+        <v>652</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D388" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E388" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F388" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G388" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I388" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J388" t="n">
-        <v>3.333333333333333</v>
+        <v>5</v>
       </c>
     </row>
     <row r="389">
@@ -32072,18 +32072,18 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>572</v>
+        <v>654</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D389" t="n">
         <v>5</v>
       </c>
       <c r="E389" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F389" t="n">
         <v>5</v>
@@ -32092,13 +32092,13 @@
         <v>5</v>
       </c>
       <c r="H389" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I389" t="n">
         <v>5</v>
       </c>
       <c r="J389" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="390">
@@ -32106,15 +32106,15 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -32129,10 +32129,10 @@
         <v>3</v>
       </c>
       <c r="I390" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J390" t="n">
-        <v>4</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="391">
@@ -32140,33 +32140,33 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>620</v>
+        <v>678</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E391" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F391" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G391" t="n">
         <v>4</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I391" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J391" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="392">
@@ -32174,15 +32174,15 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>625</v>
+        <v>681</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -32191,16 +32191,16 @@
         <v>4</v>
       </c>
       <c r="G392" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I392" t="n">
         <v>3</v>
       </c>
       <c r="J392" t="n">
-        <v>3.666666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393">
@@ -32208,24 +32208,24 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>653</v>
+        <v>686</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E393" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F393" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G393" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H393" t="n">
         <v>3</v>
@@ -32234,7 +32234,7 @@
         <v>4</v>
       </c>
       <c r="J393" t="n">
-        <v>4.333333333333333</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="394">
@@ -32242,11 +32242,11 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>732</v>
+        <v>696</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -32276,15 +32276,15 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D395" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -32293,16 +32293,16 @@
         <v>5</v>
       </c>
       <c r="G395" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H395" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I395" t="n">
         <v>4</v>
       </c>
       <c r="J395" t="n">
-        <v>4.666666666666667</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="396">
@@ -32310,18 +32310,18 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>786</v>
+        <v>736</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D396" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E396" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F396" t="n">
         <v>4</v>
@@ -32330,13 +32330,13 @@
         <v>4</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I396" t="n">
         <v>3</v>
       </c>
       <c r="J396" t="n">
-        <v>3.333333333333333</v>
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="397">
@@ -32344,33 +32344,33 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D397" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E397" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F397" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G397" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H397" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I397" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J397" t="n">
-        <v>3.666666666666667</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="398">
@@ -32378,33 +32378,33 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D398" t="n">
         <v>4</v>
       </c>
       <c r="E398" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F398" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G398" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I398" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J398" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="399">
@@ -32412,33 +32412,33 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D399" t="n">
         <v>3</v>
       </c>
       <c r="E399" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F399" t="n">
         <v>3</v>
       </c>
       <c r="G399" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H399" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I399" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J399" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -32446,33 +32446,33 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D400" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E400" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F400" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G400" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H400" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I400" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J400" t="n">
-        <v>4.166666666666667</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="401">
@@ -32480,11 +32480,11 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D401" t="n">
@@ -32494,19 +32494,19 @@
         <v>5</v>
       </c>
       <c r="F401" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G401" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H401" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I401" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J401" t="n">
-        <v>4.833333333333333</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="402">
@@ -32514,33 +32514,33 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>863</v>
+        <v>922</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E402" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F402" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G402" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H402" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I402" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J402" t="n">
-        <v>3.833333333333333</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="403">
@@ -32548,33 +32548,33 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>877</v>
+        <v>949</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D403" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
       </c>
       <c r="F403" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G403" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I403" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J403" t="n">
-        <v>3.666666666666667</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="404">
@@ -32582,15 +32582,15 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D404" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32608,7 +32608,7 @@
         <v>3</v>
       </c>
       <c r="J404" t="n">
-        <v>4</v>
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="405">
@@ -32616,33 +32616,33 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>1006</v>
+        <v>1087</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D405" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E405" t="n">
         <v>4</v>
       </c>
       <c r="F405" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G405" t="n">
         <v>4</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J405" t="n">
-        <v>4</v>
+        <v>2.833333333333333</v>
       </c>
     </row>
     <row r="406">
@@ -32650,33 +32650,33 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>1035</v>
+        <v>1152</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E406" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F406" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G406" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I406" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J406" t="n">
-        <v>3.333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="407">
@@ -32684,33 +32684,33 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>1093</v>
+        <v>1325</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D407" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E407" t="n">
         <v>4</v>
       </c>
       <c r="F407" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G407" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I407" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J407" t="n">
-        <v>2.833333333333333</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="408">
@@ -32718,33 +32718,33 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>1129</v>
+        <v>1374</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D408" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E408" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F408" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G408" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H408" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I408" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J408" t="n">
-        <v>4.666666666666667</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="409">
@@ -32752,11 +32752,11 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>1179</v>
+        <v>1574</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D409" t="n">
@@ -32766,10 +32766,10 @@
         <v>5</v>
       </c>
       <c r="F409" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G409" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H409" t="n">
         <v>3</v>
@@ -32778,7 +32778,7 @@
         <v>4</v>
       </c>
       <c r="J409" t="n">
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="410">
@@ -32786,21 +32786,21 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>1369</v>
+        <v>1593</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D410" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E410" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F410" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G410" t="n">
         <v>5</v>
@@ -32812,7 +32812,7 @@
         <v>4</v>
       </c>
       <c r="J410" t="n">
-        <v>4.166666666666667</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="411">
@@ -32820,21 +32820,21 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>1374</v>
+        <v>1855</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D411" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E411" t="n">
         <v>4</v>
       </c>
       <c r="F411" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G411" t="n">
         <v>4</v>
@@ -32843,10 +32843,10 @@
         <v>3</v>
       </c>
       <c r="I411" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J411" t="n">
-        <v>3.833333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412">
@@ -32854,33 +32854,33 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>1485</v>
+        <v>1904</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D412" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
       </c>
       <c r="F412" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G412" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H412" t="n">
         <v>2</v>
       </c>
       <c r="I412" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J412" t="n">
-        <v>4.166666666666667</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="413">
@@ -32888,18 +32888,18 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>1510</v>
+        <v>1926</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D413" t="n">
         <v>4</v>
       </c>
       <c r="E413" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F413" t="n">
         <v>4</v>
@@ -32914,7 +32914,7 @@
         <v>4</v>
       </c>
       <c r="J413" t="n">
-        <v>4</v>
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="414">
@@ -32922,18 +32922,18 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>1609</v>
+        <v>2057</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D414" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E414" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F414" t="n">
         <v>4</v>
@@ -32945,10 +32945,10 @@
         <v>3</v>
       </c>
       <c r="I414" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J414" t="n">
-        <v>3.833333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415">
@@ -32956,11 +32956,11 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>1639</v>
+        <v>2129</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -32990,15 +32990,15 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>1727</v>
+        <v>3977</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D416" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E416" t="n">
         <v>4</v>
@@ -33007,16 +33007,16 @@
         <v>3</v>
       </c>
       <c r="G416" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H416" t="n">
         <v>2</v>
       </c>
       <c r="I416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J416" t="n">
-        <v>3.333333333333333</v>
+        <v>2.833333333333333</v>
       </c>
     </row>
     <row r="417">
@@ -33024,33 +33024,33 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>1841</v>
+        <v>3981</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D417" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E417" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F417" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G417" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H417" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I417" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J417" t="n">
-        <v>4.333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="418">
@@ -33058,21 +33058,21 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>1980</v>
+        <v>3999</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D418" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
       </c>
       <c r="F418" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G418" t="n">
         <v>5</v>
@@ -33092,33 +33092,33 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>1986</v>
+        <v>4453</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D419" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E419" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F419" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G419" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H419" t="n">
         <v>3</v>
       </c>
       <c r="I419" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J419" t="n">
-        <v>4.166666666666667</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="420">
@@ -33126,33 +33126,33 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>2401</v>
+        <v>6112</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D420" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E420" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F420" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G420" t="n">
         <v>3</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>2</v>
       </c>
       <c r="J420" t="n">
-        <v>2.833333333333333</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="421">
@@ -33160,24 +33160,24 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>2494</v>
+        <v>7460</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_mc600_ea1.0_snks0_hopf_True_type_sum_fused_rerun_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D421" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
       </c>
       <c r="F421" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G421" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H421" t="n">
         <v>3</v>
@@ -33186,7 +33186,7 @@
         <v>4</v>
       </c>
       <c r="J421" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="422">
@@ -33198,7 +33198,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D422" t="n">
@@ -33232,7 +33232,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D423" t="n">
@@ -33266,7 +33266,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D424" t="n">
@@ -33300,7 +33300,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D425" t="n">
@@ -33334,7 +33334,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D426" t="n">
@@ -33368,7 +33368,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D427" t="n">
@@ -33398,24 +33398,24 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D428" t="n">
         <v>1</v>
       </c>
       <c r="E428" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F428" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G428" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H428" t="n">
         <v>1</v>
@@ -33424,7 +33424,7 @@
         <v>1</v>
       </c>
       <c r="J428" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -33432,11 +33432,11 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D429" t="n">
@@ -33446,7 +33446,7 @@
         <v>5</v>
       </c>
       <c r="F429" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G429" t="n">
         <v>5</v>
@@ -33458,7 +33458,7 @@
         <v>1</v>
       </c>
       <c r="J429" t="n">
-        <v>2.333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -33466,11 +33466,11 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D430" t="n">
@@ -33480,7 +33480,7 @@
         <v>5</v>
       </c>
       <c r="F430" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G430" t="n">
         <v>5</v>
@@ -33492,7 +33492,7 @@
         <v>1</v>
       </c>
       <c r="J430" t="n">
-        <v>2.333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -33504,7 +33504,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D431" t="n">
@@ -33514,10 +33514,10 @@
         <v>5</v>
       </c>
       <c r="F431" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G431" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H431" t="n">
         <v>1</v>
@@ -33526,7 +33526,7 @@
         <v>1</v>
       </c>
       <c r="J431" t="n">
-        <v>2.333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -33534,24 +33534,24 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E432" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F432" t="n">
         <v>1</v>
       </c>
       <c r="G432" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H432" t="n">
         <v>1</v>
@@ -33560,7 +33560,7 @@
         <v>1</v>
       </c>
       <c r="J432" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="433">
@@ -33568,24 +33568,24 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D433" t="n">
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F433" t="n">
         <v>1</v>
       </c>
       <c r="G433" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H433" t="n">
         <v>1</v>
@@ -33594,7 +33594,7 @@
         <v>1</v>
       </c>
       <c r="J433" t="n">
-        <v>2.333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -33602,33 +33602,33 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D434" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E434" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F434" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G434" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J434" t="n">
-        <v>4.333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -33636,33 +33636,33 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D435" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E435" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F435" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G435" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I435" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J435" t="n">
-        <v>2.666666666666667</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="436">
@@ -33670,33 +33670,33 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D436" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E436" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F436" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G436" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J436" t="n">
-        <v>4.5</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="437">
@@ -33704,33 +33704,33 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D437" t="n">
         <v>3</v>
       </c>
       <c r="E437" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F437" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G437" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I437" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J437" t="n">
-        <v>3.166666666666667</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="438">
@@ -33738,33 +33738,33 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D438" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
       </c>
       <c r="F438" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G438" t="n">
         <v>5</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I438" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J438" t="n">
-        <v>3.666666666666667</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="439">
@@ -33772,33 +33772,33 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D439" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E439" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F439" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G439" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H439" t="n">
         <v>2</v>
       </c>
       <c r="I439" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J439" t="n">
-        <v>3.166666666666667</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="440">
@@ -33806,33 +33806,33 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D440" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E440" t="n">
         <v>5</v>
       </c>
       <c r="F440" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G440" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H440" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I440" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J440" t="n">
-        <v>4.666666666666667</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="441">
@@ -33844,14 +33844,14 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E441" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F441" t="n">
         <v>4</v>
@@ -33878,29 +33878,29 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D442" t="n">
         <v>4</v>
       </c>
       <c r="E442" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F442" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G442" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I442" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J442" t="n">
-        <v>3</v>
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="443">
@@ -33912,14 +33912,14 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D443" t="n">
         <v>5</v>
       </c>
       <c r="E443" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F443" t="n">
         <v>5</v>
@@ -33928,13 +33928,13 @@
         <v>5</v>
       </c>
       <c r="H443" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I443" t="n">
         <v>5</v>
       </c>
       <c r="J443" t="n">
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="444">
@@ -33942,33 +33942,33 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>382</v>
+        <v>453</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D444" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E444" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F444" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G444" t="n">
         <v>5</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I444" t="n">
         <v>4</v>
       </c>
       <c r="J444" t="n">
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="445">
@@ -33976,15 +33976,15 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D445" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -33993,16 +33993,16 @@
         <v>4</v>
       </c>
       <c r="G445" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I445" t="n">
         <v>4</v>
       </c>
       <c r="J445" t="n">
-        <v>3.833333333333333</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="446">
@@ -34010,33 +34010,33 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D446" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
       </c>
       <c r="F446" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G446" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H446" t="n">
         <v>3</v>
       </c>
       <c r="I446" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J446" t="n">
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="447">
@@ -34044,33 +34044,33 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D447" t="n">
         <v>5</v>
       </c>
       <c r="E447" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F447" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G447" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H447" t="n">
         <v>4</v>
       </c>
       <c r="I447" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J447" t="n">
-        <v>4.833333333333333</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="448">
@@ -34078,33 +34078,33 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D448" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E448" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F448" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G448" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H448" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I448" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J448" t="n">
-        <v>5</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="449">
@@ -34112,33 +34112,33 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D449" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E449" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F449" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G449" t="n">
         <v>5</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I449" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J449" t="n">
-        <v>3.833333333333333</v>
+        <v>5</v>
       </c>
     </row>
     <row r="450">
@@ -34146,33 +34146,33 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D450" t="n">
         <v>5</v>
       </c>
       <c r="E450" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F450" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G450" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H450" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I450" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J450" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451">
@@ -34180,33 +34180,33 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D451" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E451" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F451" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G451" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H451" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I451" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J451" t="n">
-        <v>4.833333333333333</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="452">
@@ -34214,15 +34214,15 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D452" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -34237,10 +34237,10 @@
         <v>3</v>
       </c>
       <c r="I452" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J452" t="n">
-        <v>4</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="453">
@@ -34248,15 +34248,15 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D453" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -34268,13 +34268,13 @@
         <v>5</v>
       </c>
       <c r="H453" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I453" t="n">
         <v>4</v>
       </c>
       <c r="J453" t="n">
-        <v>4.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="454">
@@ -34282,11 +34282,11 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>627</v>
+        <v>732</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D454" t="n">
@@ -34302,13 +34302,13 @@
         <v>5</v>
       </c>
       <c r="H454" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I454" t="n">
         <v>5</v>
       </c>
       <c r="J454" t="n">
-        <v>5</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="455">
@@ -34316,11 +34316,11 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>637</v>
+        <v>737</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D455" t="n">
@@ -34339,10 +34339,10 @@
         <v>4</v>
       </c>
       <c r="I455" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J455" t="n">
-        <v>4.833333333333333</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="456">
@@ -34350,15 +34350,15 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>662</v>
+        <v>786</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D456" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E456" t="n">
         <v>4</v>
@@ -34367,16 +34367,16 @@
         <v>4</v>
       </c>
       <c r="G456" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I456" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J456" t="n">
-        <v>3.833333333333333</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="457">
@@ -34384,33 +34384,33 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>722</v>
+        <v>790</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D457" t="n">
         <v>5</v>
       </c>
       <c r="E457" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F457" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G457" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H457" t="n">
         <v>4</v>
       </c>
       <c r="I457" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J457" t="n">
-        <v>4.833333333333333</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="458">
@@ -34418,33 +34418,33 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>723</v>
+        <v>794</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D458" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
       </c>
       <c r="F458" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G458" t="n">
         <v>4</v>
       </c>
       <c r="H458" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I458" t="n">
         <v>4</v>
       </c>
       <c r="J458" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459">
@@ -34452,21 +34452,21 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>752</v>
+        <v>826</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D459" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
       </c>
       <c r="F459" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G459" t="n">
         <v>5</v>
@@ -34478,7 +34478,7 @@
         <v>4</v>
       </c>
       <c r="J459" t="n">
-        <v>4.666666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="460">
@@ -34486,15 +34486,15 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>799</v>
+        <v>842</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D460" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -34506,13 +34506,13 @@
         <v>4</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I460" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J460" t="n">
-        <v>3.5</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="461">
@@ -34520,21 +34520,21 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D461" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E461" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F461" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G461" t="n">
         <v>5</v>
@@ -34543,10 +34543,10 @@
         <v>4</v>
       </c>
       <c r="I461" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J461" t="n">
-        <v>4</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="462">
@@ -34554,33 +34554,33 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D462" t="n">
         <v>5</v>
       </c>
       <c r="E462" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F462" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G462" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I462" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J462" t="n">
-        <v>4.333333333333333</v>
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="463">
@@ -34588,21 +34588,21 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>907</v>
+        <v>877</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D463" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
       </c>
       <c r="F463" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G463" t="n">
         <v>4</v>
@@ -34611,10 +34611,10 @@
         <v>3</v>
       </c>
       <c r="I463" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J463" t="n">
-        <v>4.166666666666667</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="464">
@@ -34622,15 +34622,15 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>921</v>
+        <v>944</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D464" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -34639,16 +34639,16 @@
         <v>4</v>
       </c>
       <c r="G464" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H464" t="n">
         <v>3</v>
       </c>
       <c r="I464" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J464" t="n">
-        <v>4.166666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465">
@@ -34656,18 +34656,18 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>968</v>
+        <v>1006</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D465" t="n">
         <v>5</v>
       </c>
       <c r="E465" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F465" t="n">
         <v>4</v>
@@ -34676,13 +34676,13 @@
         <v>4</v>
       </c>
       <c r="H465" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I465" t="n">
         <v>4</v>
       </c>
       <c r="J465" t="n">
-        <v>4.333333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466">
@@ -34690,33 +34690,33 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>996</v>
+        <v>1035</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D466" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E466" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F466" t="n">
         <v>4</v>
       </c>
       <c r="G466" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H466" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I466" t="n">
         <v>3</v>
       </c>
       <c r="J466" t="n">
-        <v>3.833333333333333</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="467">
@@ -34724,33 +34724,33 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>1018</v>
+        <v>1093</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D467" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E467" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F467" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G467" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H467" t="n">
         <v>2</v>
       </c>
       <c r="I467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J467" t="n">
-        <v>3.333333333333333</v>
+        <v>2.833333333333333</v>
       </c>
     </row>
     <row r="468">
@@ -34758,33 +34758,33 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D468" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E468" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F468" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G468" t="n">
         <v>4</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I468" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J468" t="n">
-        <v>3.166666666666667</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="469">
@@ -34792,18 +34792,18 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D469" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E469" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F469" t="n">
         <v>4</v>
@@ -34812,13 +34812,13 @@
         <v>4</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I469" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J469" t="n">
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="470">
@@ -34826,33 +34826,33 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>1257</v>
+        <v>1369</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D470" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
       </c>
       <c r="F470" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G470" t="n">
         <v>5</v>
       </c>
       <c r="H470" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I470" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J470" t="n">
-        <v>4.833333333333333</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="471">
@@ -34860,18 +34860,18 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D471" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E471" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F471" t="n">
         <v>4</v>
@@ -34880,13 +34880,13 @@
         <v>4</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I471" t="n">
         <v>3</v>
       </c>
       <c r="J471" t="n">
-        <v>3.5</v>
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="472">
@@ -34894,33 +34894,33 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>1404</v>
+        <v>1485</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D472" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
       </c>
       <c r="F472" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G472" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H472" t="n">
         <v>2</v>
       </c>
       <c r="I472" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J472" t="n">
-        <v>3.833333333333333</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="473">
@@ -34928,21 +34928,21 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>1410</v>
+        <v>1510</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D473" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
       </c>
       <c r="F473" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G473" t="n">
         <v>4</v>
@@ -34951,10 +34951,10 @@
         <v>3</v>
       </c>
       <c r="I473" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J473" t="n">
-        <v>4.166666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="474">
@@ -34962,24 +34962,24 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>1463</v>
+        <v>1609</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D474" t="n">
         <v>5</v>
       </c>
       <c r="E474" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F474" t="n">
         <v>4</v>
       </c>
       <c r="G474" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H474" t="n">
         <v>3</v>
@@ -34988,7 +34988,7 @@
         <v>3</v>
       </c>
       <c r="J474" t="n">
-        <v>3.333333333333333</v>
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="475">
@@ -34996,27 +34996,27 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>1550</v>
+        <v>1639</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D475" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E475" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F475" t="n">
         <v>5</v>
       </c>
       <c r="G475" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H475" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I475" t="n">
         <v>4</v>
@@ -35030,33 +35030,33 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>1632</v>
+        <v>1727</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D476" t="n">
         <v>4</v>
       </c>
       <c r="E476" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F476" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G476" t="n">
         <v>4</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I476" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J476" t="n">
-        <v>4.166666666666667</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="477">
@@ -35064,27 +35064,27 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>1747</v>
+        <v>1841</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D477" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
       </c>
       <c r="F477" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G477" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I477" t="n">
         <v>4</v>
@@ -35098,24 +35098,24 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>1752</v>
+        <v>1980</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D478" t="n">
         <v>4</v>
       </c>
       <c r="E478" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F478" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G478" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H478" t="n">
         <v>4</v>
@@ -35124,7 +35124,7 @@
         <v>4</v>
       </c>
       <c r="J478" t="n">
-        <v>3.833333333333333</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="479">
@@ -35132,24 +35132,24 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>1926</v>
+        <v>1986</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D479" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E479" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F479" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G479" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H479" t="n">
         <v>3</v>
@@ -35158,7 +35158,7 @@
         <v>4</v>
       </c>
       <c r="J479" t="n">
-        <v>3.833333333333333</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="480">
@@ -35166,33 +35166,33 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>2176</v>
+        <v>2401</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="D480" t="n">
         <v>4</v>
       </c>
       <c r="E480" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F480" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G480" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I480" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J480" t="n">
-        <v>4.166666666666667</v>
+        <v>2.833333333333333</v>
       </c>
     </row>
     <row r="481">
@@ -35200,32 +35200,2072 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
+        <v>2494</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>preds_ws30_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>4</v>
+      </c>
+      <c r="E481" t="n">
+        <v>5</v>
+      </c>
+      <c r="F481" t="n">
+        <v>4</v>
+      </c>
+      <c r="G481" t="n">
+        <v>4</v>
+      </c>
+      <c r="H481" t="n">
+        <v>3</v>
+      </c>
+      <c r="I481" t="n">
+        <v>4</v>
+      </c>
+      <c r="J481" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>1</v>
+      </c>
+      <c r="E482" t="n">
+        <v>1</v>
+      </c>
+      <c r="F482" t="n">
+        <v>1</v>
+      </c>
+      <c r="G482" t="n">
+        <v>1</v>
+      </c>
+      <c r="H482" t="n">
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>1</v>
+      </c>
+      <c r="J482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>1</v>
+      </c>
+      <c r="E483" t="n">
+        <v>1</v>
+      </c>
+      <c r="F483" t="n">
+        <v>1</v>
+      </c>
+      <c r="G483" t="n">
+        <v>1</v>
+      </c>
+      <c r="H483" t="n">
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>1</v>
+      </c>
+      <c r="J483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0</v>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>1</v>
+      </c>
+      <c r="E484" t="n">
+        <v>1</v>
+      </c>
+      <c r="F484" t="n">
+        <v>1</v>
+      </c>
+      <c r="G484" t="n">
+        <v>1</v>
+      </c>
+      <c r="H484" t="n">
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>1</v>
+      </c>
+      <c r="J484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>1</v>
+      </c>
+      <c r="E485" t="n">
+        <v>1</v>
+      </c>
+      <c r="F485" t="n">
+        <v>1</v>
+      </c>
+      <c r="G485" t="n">
+        <v>1</v>
+      </c>
+      <c r="H485" t="n">
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>1</v>
+      </c>
+      <c r="J485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>1</v>
+      </c>
+      <c r="E486" t="n">
+        <v>1</v>
+      </c>
+      <c r="F486" t="n">
+        <v>1</v>
+      </c>
+      <c r="G486" t="n">
+        <v>1</v>
+      </c>
+      <c r="H486" t="n">
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>1</v>
+      </c>
+      <c r="J486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>1</v>
+      </c>
+      <c r="E487" t="n">
+        <v>1</v>
+      </c>
+      <c r="F487" t="n">
+        <v>1</v>
+      </c>
+      <c r="G487" t="n">
+        <v>1</v>
+      </c>
+      <c r="H487" t="n">
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>1</v>
+      </c>
+      <c r="J487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>1</v>
+      </c>
+      <c r="E488" t="n">
+        <v>1</v>
+      </c>
+      <c r="F488" t="n">
+        <v>1</v>
+      </c>
+      <c r="G488" t="n">
+        <v>1</v>
+      </c>
+      <c r="H488" t="n">
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>1</v>
+      </c>
+      <c r="J488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>5</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>1</v>
+      </c>
+      <c r="E489" t="n">
+        <v>5</v>
+      </c>
+      <c r="F489" t="n">
+        <v>1</v>
+      </c>
+      <c r="G489" t="n">
+        <v>5</v>
+      </c>
+      <c r="H489" t="n">
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>1</v>
+      </c>
+      <c r="J489" t="n">
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>7</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>1</v>
+      </c>
+      <c r="E490" t="n">
+        <v>5</v>
+      </c>
+      <c r="F490" t="n">
+        <v>1</v>
+      </c>
+      <c r="G490" t="n">
+        <v>5</v>
+      </c>
+      <c r="H490" t="n">
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>1</v>
+      </c>
+      <c r="J490" t="n">
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>11</v>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>1</v>
+      </c>
+      <c r="E491" t="n">
+        <v>5</v>
+      </c>
+      <c r="F491" t="n">
+        <v>2</v>
+      </c>
+      <c r="G491" t="n">
+        <v>4</v>
+      </c>
+      <c r="H491" t="n">
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>1</v>
+      </c>
+      <c r="J491" t="n">
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>17</v>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>1</v>
+      </c>
+      <c r="E492" t="n">
+        <v>1</v>
+      </c>
+      <c r="F492" t="n">
+        <v>1</v>
+      </c>
+      <c r="G492" t="n">
+        <v>1</v>
+      </c>
+      <c r="H492" t="n">
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>1</v>
+      </c>
+      <c r="J492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>56</v>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>1</v>
+      </c>
+      <c r="E493" t="n">
+        <v>5</v>
+      </c>
+      <c r="F493" t="n">
+        <v>1</v>
+      </c>
+      <c r="G493" t="n">
+        <v>5</v>
+      </c>
+      <c r="H493" t="n">
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>1</v>
+      </c>
+      <c r="J493" t="n">
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>58</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>5</v>
+      </c>
+      <c r="E494" t="n">
+        <v>5</v>
+      </c>
+      <c r="F494" t="n">
+        <v>5</v>
+      </c>
+      <c r="G494" t="n">
+        <v>5</v>
+      </c>
+      <c r="H494" t="n">
+        <v>2</v>
+      </c>
+      <c r="I494" t="n">
+        <v>4</v>
+      </c>
+      <c r="J494" t="n">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>64</v>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>2</v>
+      </c>
+      <c r="E495" t="n">
+        <v>4</v>
+      </c>
+      <c r="F495" t="n">
+        <v>3</v>
+      </c>
+      <c r="G495" t="n">
+        <v>4</v>
+      </c>
+      <c r="H495" t="n">
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>2</v>
+      </c>
+      <c r="J495" t="n">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>70</v>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>5</v>
+      </c>
+      <c r="E496" t="n">
+        <v>5</v>
+      </c>
+      <c r="F496" t="n">
+        <v>5</v>
+      </c>
+      <c r="G496" t="n">
+        <v>5</v>
+      </c>
+      <c r="H496" t="n">
+        <v>3</v>
+      </c>
+      <c r="I496" t="n">
+        <v>4</v>
+      </c>
+      <c r="J496" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>111</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>3</v>
+      </c>
+      <c r="E497" t="n">
+        <v>4</v>
+      </c>
+      <c r="F497" t="n">
+        <v>3</v>
+      </c>
+      <c r="G497" t="n">
+        <v>4</v>
+      </c>
+      <c r="H497" t="n">
+        <v>2</v>
+      </c>
+      <c r="I497" t="n">
+        <v>3</v>
+      </c>
+      <c r="J497" t="n">
+        <v>3.166666666666667</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>126</v>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>3</v>
+      </c>
+      <c r="E498" t="n">
+        <v>5</v>
+      </c>
+      <c r="F498" t="n">
+        <v>4</v>
+      </c>
+      <c r="G498" t="n">
+        <v>5</v>
+      </c>
+      <c r="H498" t="n">
+        <v>2</v>
+      </c>
+      <c r="I498" t="n">
+        <v>3</v>
+      </c>
+      <c r="J498" t="n">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>143</v>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>4</v>
+      </c>
+      <c r="E499" t="n">
+        <v>3</v>
+      </c>
+      <c r="F499" t="n">
+        <v>3</v>
+      </c>
+      <c r="G499" t="n">
+        <v>4</v>
+      </c>
+      <c r="H499" t="n">
+        <v>2</v>
+      </c>
+      <c r="I499" t="n">
+        <v>3</v>
+      </c>
+      <c r="J499" t="n">
+        <v>3.166666666666667</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>147</v>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>5</v>
+      </c>
+      <c r="E500" t="n">
+        <v>5</v>
+      </c>
+      <c r="F500" t="n">
+        <v>4</v>
+      </c>
+      <c r="G500" t="n">
+        <v>5</v>
+      </c>
+      <c r="H500" t="n">
+        <v>4</v>
+      </c>
+      <c r="I500" t="n">
+        <v>5</v>
+      </c>
+      <c r="J500" t="n">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>261</v>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>3</v>
+      </c>
+      <c r="E501" t="n">
+        <v>4</v>
+      </c>
+      <c r="F501" t="n">
+        <v>4</v>
+      </c>
+      <c r="G501" t="n">
+        <v>4</v>
+      </c>
+      <c r="H501" t="n">
+        <v>2</v>
+      </c>
+      <c r="I501" t="n">
+        <v>3</v>
+      </c>
+      <c r="J501" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>318</v>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>4</v>
+      </c>
+      <c r="E502" t="n">
+        <v>4</v>
+      </c>
+      <c r="F502" t="n">
+        <v>3</v>
+      </c>
+      <c r="G502" t="n">
+        <v>3</v>
+      </c>
+      <c r="H502" t="n">
+        <v>2</v>
+      </c>
+      <c r="I502" t="n">
+        <v>2</v>
+      </c>
+      <c r="J502" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>378</v>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>5</v>
+      </c>
+      <c r="E503" t="n">
+        <v>5</v>
+      </c>
+      <c r="F503" t="n">
+        <v>5</v>
+      </c>
+      <c r="G503" t="n">
+        <v>5</v>
+      </c>
+      <c r="H503" t="n">
+        <v>5</v>
+      </c>
+      <c r="I503" t="n">
+        <v>5</v>
+      </c>
+      <c r="J503" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>382</v>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>4</v>
+      </c>
+      <c r="E504" t="n">
+        <v>5</v>
+      </c>
+      <c r="F504" t="n">
+        <v>4</v>
+      </c>
+      <c r="G504" t="n">
+        <v>5</v>
+      </c>
+      <c r="H504" t="n">
+        <v>2</v>
+      </c>
+      <c r="I504" t="n">
+        <v>4</v>
+      </c>
+      <c r="J504" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>416</v>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>3</v>
+      </c>
+      <c r="E505" t="n">
+        <v>5</v>
+      </c>
+      <c r="F505" t="n">
+        <v>4</v>
+      </c>
+      <c r="G505" t="n">
+        <v>5</v>
+      </c>
+      <c r="H505" t="n">
+        <v>2</v>
+      </c>
+      <c r="I505" t="n">
+        <v>4</v>
+      </c>
+      <c r="J505" t="n">
+        <v>3.833333333333333</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>456</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>4</v>
+      </c>
+      <c r="E506" t="n">
+        <v>5</v>
+      </c>
+      <c r="F506" t="n">
+        <v>4</v>
+      </c>
+      <c r="G506" t="n">
+        <v>4</v>
+      </c>
+      <c r="H506" t="n">
+        <v>3</v>
+      </c>
+      <c r="I506" t="n">
+        <v>4</v>
+      </c>
+      <c r="J506" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>467</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>5</v>
+      </c>
+      <c r="E507" t="n">
+        <v>5</v>
+      </c>
+      <c r="F507" t="n">
+        <v>5</v>
+      </c>
+      <c r="G507" t="n">
+        <v>5</v>
+      </c>
+      <c r="H507" t="n">
+        <v>4</v>
+      </c>
+      <c r="I507" t="n">
+        <v>5</v>
+      </c>
+      <c r="J507" t="n">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>518</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>5</v>
+      </c>
+      <c r="E508" t="n">
+        <v>5</v>
+      </c>
+      <c r="F508" t="n">
+        <v>5</v>
+      </c>
+      <c r="G508" t="n">
+        <v>5</v>
+      </c>
+      <c r="H508" t="n">
+        <v>5</v>
+      </c>
+      <c r="I508" t="n">
+        <v>5</v>
+      </c>
+      <c r="J508" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>554</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>3</v>
+      </c>
+      <c r="E509" t="n">
+        <v>4</v>
+      </c>
+      <c r="F509" t="n">
+        <v>4</v>
+      </c>
+      <c r="G509" t="n">
+        <v>5</v>
+      </c>
+      <c r="H509" t="n">
+        <v>3</v>
+      </c>
+      <c r="I509" t="n">
+        <v>4</v>
+      </c>
+      <c r="J509" t="n">
+        <v>3.833333333333333</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>572</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>5</v>
+      </c>
+      <c r="E510" t="n">
+        <v>5</v>
+      </c>
+      <c r="F510" t="n">
+        <v>5</v>
+      </c>
+      <c r="G510" t="n">
+        <v>5</v>
+      </c>
+      <c r="H510" t="n">
+        <v>5</v>
+      </c>
+      <c r="I510" t="n">
+        <v>5</v>
+      </c>
+      <c r="J510" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
+        <v>580</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>5</v>
+      </c>
+      <c r="E511" t="n">
+        <v>5</v>
+      </c>
+      <c r="F511" t="n">
+        <v>5</v>
+      </c>
+      <c r="G511" t="n">
+        <v>5</v>
+      </c>
+      <c r="H511" t="n">
+        <v>4</v>
+      </c>
+      <c r="I511" t="n">
+        <v>5</v>
+      </c>
+      <c r="J511" t="n">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>585</v>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>4</v>
+      </c>
+      <c r="E512" t="n">
+        <v>5</v>
+      </c>
+      <c r="F512" t="n">
+        <v>4</v>
+      </c>
+      <c r="G512" t="n">
+        <v>4</v>
+      </c>
+      <c r="H512" t="n">
+        <v>3</v>
+      </c>
+      <c r="I512" t="n">
+        <v>4</v>
+      </c>
+      <c r="J512" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>595</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>5</v>
+      </c>
+      <c r="E513" t="n">
+        <v>5</v>
+      </c>
+      <c r="F513" t="n">
+        <v>5</v>
+      </c>
+      <c r="G513" t="n">
+        <v>5</v>
+      </c>
+      <c r="H513" t="n">
+        <v>4</v>
+      </c>
+      <c r="I513" t="n">
+        <v>4</v>
+      </c>
+      <c r="J513" t="n">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>627</v>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>5</v>
+      </c>
+      <c r="E514" t="n">
+        <v>5</v>
+      </c>
+      <c r="F514" t="n">
+        <v>5</v>
+      </c>
+      <c r="G514" t="n">
+        <v>5</v>
+      </c>
+      <c r="H514" t="n">
+        <v>5</v>
+      </c>
+      <c r="I514" t="n">
+        <v>5</v>
+      </c>
+      <c r="J514" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>637</v>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>5</v>
+      </c>
+      <c r="E515" t="n">
+        <v>5</v>
+      </c>
+      <c r="F515" t="n">
+        <v>5</v>
+      </c>
+      <c r="G515" t="n">
+        <v>5</v>
+      </c>
+      <c r="H515" t="n">
+        <v>4</v>
+      </c>
+      <c r="I515" t="n">
+        <v>5</v>
+      </c>
+      <c r="J515" t="n">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>662</v>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>5</v>
+      </c>
+      <c r="E516" t="n">
+        <v>4</v>
+      </c>
+      <c r="F516" t="n">
+        <v>4</v>
+      </c>
+      <c r="G516" t="n">
+        <v>3</v>
+      </c>
+      <c r="H516" t="n">
+        <v>3</v>
+      </c>
+      <c r="I516" t="n">
+        <v>4</v>
+      </c>
+      <c r="J516" t="n">
+        <v>3.833333333333333</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>722</v>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>5</v>
+      </c>
+      <c r="E517" t="n">
+        <v>5</v>
+      </c>
+      <c r="F517" t="n">
+        <v>5</v>
+      </c>
+      <c r="G517" t="n">
+        <v>5</v>
+      </c>
+      <c r="H517" t="n">
+        <v>4</v>
+      </c>
+      <c r="I517" t="n">
+        <v>5</v>
+      </c>
+      <c r="J517" t="n">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>723</v>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>5</v>
+      </c>
+      <c r="E518" t="n">
+        <v>5</v>
+      </c>
+      <c r="F518" t="n">
+        <v>5</v>
+      </c>
+      <c r="G518" t="n">
+        <v>4</v>
+      </c>
+      <c r="H518" t="n">
+        <v>4</v>
+      </c>
+      <c r="I518" t="n">
+        <v>4</v>
+      </c>
+      <c r="J518" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>752</v>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D519" t="n">
+        <v>5</v>
+      </c>
+      <c r="E519" t="n">
+        <v>5</v>
+      </c>
+      <c r="F519" t="n">
+        <v>5</v>
+      </c>
+      <c r="G519" t="n">
+        <v>5</v>
+      </c>
+      <c r="H519" t="n">
+        <v>4</v>
+      </c>
+      <c r="I519" t="n">
+        <v>4</v>
+      </c>
+      <c r="J519" t="n">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
+        <v>799</v>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>3</v>
+      </c>
+      <c r="E520" t="n">
+        <v>5</v>
+      </c>
+      <c r="F520" t="n">
+        <v>4</v>
+      </c>
+      <c r="G520" t="n">
+        <v>4</v>
+      </c>
+      <c r="H520" t="n">
+        <v>2</v>
+      </c>
+      <c r="I520" t="n">
+        <v>3</v>
+      </c>
+      <c r="J520" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>845</v>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>3</v>
+      </c>
+      <c r="E521" t="n">
+        <v>4</v>
+      </c>
+      <c r="F521" t="n">
+        <v>4</v>
+      </c>
+      <c r="G521" t="n">
+        <v>5</v>
+      </c>
+      <c r="H521" t="n">
+        <v>4</v>
+      </c>
+      <c r="I521" t="n">
+        <v>4</v>
+      </c>
+      <c r="J521" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>852</v>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>5</v>
+      </c>
+      <c r="E522" t="n">
+        <v>5</v>
+      </c>
+      <c r="F522" t="n">
+        <v>5</v>
+      </c>
+      <c r="G522" t="n">
+        <v>5</v>
+      </c>
+      <c r="H522" t="n">
+        <v>2</v>
+      </c>
+      <c r="I522" t="n">
+        <v>4</v>
+      </c>
+      <c r="J522" t="n">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>907</v>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>5</v>
+      </c>
+      <c r="E523" t="n">
+        <v>5</v>
+      </c>
+      <c r="F523" t="n">
+        <v>4</v>
+      </c>
+      <c r="G523" t="n">
+        <v>4</v>
+      </c>
+      <c r="H523" t="n">
+        <v>3</v>
+      </c>
+      <c r="I523" t="n">
+        <v>4</v>
+      </c>
+      <c r="J523" t="n">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>921</v>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>4</v>
+      </c>
+      <c r="E524" t="n">
+        <v>5</v>
+      </c>
+      <c r="F524" t="n">
+        <v>4</v>
+      </c>
+      <c r="G524" t="n">
+        <v>5</v>
+      </c>
+      <c r="H524" t="n">
+        <v>3</v>
+      </c>
+      <c r="I524" t="n">
+        <v>4</v>
+      </c>
+      <c r="J524" t="n">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>968</v>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>5</v>
+      </c>
+      <c r="E525" t="n">
+        <v>5</v>
+      </c>
+      <c r="F525" t="n">
+        <v>4</v>
+      </c>
+      <c r="G525" t="n">
+        <v>4</v>
+      </c>
+      <c r="H525" t="n">
+        <v>4</v>
+      </c>
+      <c r="I525" t="n">
+        <v>4</v>
+      </c>
+      <c r="J525" t="n">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>996</v>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D526" t="n">
+        <v>4</v>
+      </c>
+      <c r="E526" t="n">
+        <v>5</v>
+      </c>
+      <c r="F526" t="n">
+        <v>4</v>
+      </c>
+      <c r="G526" t="n">
+        <v>3</v>
+      </c>
+      <c r="H526" t="n">
+        <v>4</v>
+      </c>
+      <c r="I526" t="n">
+        <v>3</v>
+      </c>
+      <c r="J526" t="n">
+        <v>3.833333333333333</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D527" t="n">
+        <v>4</v>
+      </c>
+      <c r="E527" t="n">
+        <v>3</v>
+      </c>
+      <c r="F527" t="n">
+        <v>4</v>
+      </c>
+      <c r="G527" t="n">
+        <v>4</v>
+      </c>
+      <c r="H527" t="n">
+        <v>2</v>
+      </c>
+      <c r="I527" t="n">
+        <v>3</v>
+      </c>
+      <c r="J527" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>1119</v>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>2</v>
+      </c>
+      <c r="E528" t="n">
+        <v>4</v>
+      </c>
+      <c r="F528" t="n">
+        <v>4</v>
+      </c>
+      <c r="G528" t="n">
+        <v>4</v>
+      </c>
+      <c r="H528" t="n">
+        <v>2</v>
+      </c>
+      <c r="I528" t="n">
+        <v>3</v>
+      </c>
+      <c r="J528" t="n">
+        <v>3.166666666666667</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>1181</v>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D529" t="n">
+        <v>3</v>
+      </c>
+      <c r="E529" t="n">
+        <v>4</v>
+      </c>
+      <c r="F529" t="n">
+        <v>4</v>
+      </c>
+      <c r="G529" t="n">
+        <v>4</v>
+      </c>
+      <c r="H529" t="n">
+        <v>2</v>
+      </c>
+      <c r="I529" t="n">
+        <v>3</v>
+      </c>
+      <c r="J529" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>1257</v>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D530" t="n">
+        <v>5</v>
+      </c>
+      <c r="E530" t="n">
+        <v>5</v>
+      </c>
+      <c r="F530" t="n">
+        <v>5</v>
+      </c>
+      <c r="G530" t="n">
+        <v>5</v>
+      </c>
+      <c r="H530" t="n">
+        <v>4</v>
+      </c>
+      <c r="I530" t="n">
+        <v>5</v>
+      </c>
+      <c r="J530" t="n">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>1384</v>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D531" t="n">
+        <v>3</v>
+      </c>
+      <c r="E531" t="n">
+        <v>5</v>
+      </c>
+      <c r="F531" t="n">
+        <v>4</v>
+      </c>
+      <c r="G531" t="n">
+        <v>4</v>
+      </c>
+      <c r="H531" t="n">
+        <v>2</v>
+      </c>
+      <c r="I531" t="n">
+        <v>3</v>
+      </c>
+      <c r="J531" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>1404</v>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D532" t="n">
+        <v>5</v>
+      </c>
+      <c r="E532" t="n">
+        <v>5</v>
+      </c>
+      <c r="F532" t="n">
+        <v>4</v>
+      </c>
+      <c r="G532" t="n">
+        <v>4</v>
+      </c>
+      <c r="H532" t="n">
+        <v>2</v>
+      </c>
+      <c r="I532" t="n">
+        <v>3</v>
+      </c>
+      <c r="J532" t="n">
+        <v>3.833333333333333</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D533" t="n">
+        <v>5</v>
+      </c>
+      <c r="E533" t="n">
+        <v>5</v>
+      </c>
+      <c r="F533" t="n">
+        <v>5</v>
+      </c>
+      <c r="G533" t="n">
+        <v>4</v>
+      </c>
+      <c r="H533" t="n">
+        <v>3</v>
+      </c>
+      <c r="I533" t="n">
+        <v>3</v>
+      </c>
+      <c r="J533" t="n">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>1463</v>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>5</v>
+      </c>
+      <c r="E534" t="n">
+        <v>2</v>
+      </c>
+      <c r="F534" t="n">
+        <v>4</v>
+      </c>
+      <c r="G534" t="n">
+        <v>3</v>
+      </c>
+      <c r="H534" t="n">
+        <v>3</v>
+      </c>
+      <c r="I534" t="n">
+        <v>3</v>
+      </c>
+      <c r="J534" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>5</v>
+      </c>
+      <c r="E535" t="n">
+        <v>4</v>
+      </c>
+      <c r="F535" t="n">
+        <v>5</v>
+      </c>
+      <c r="G535" t="n">
+        <v>4</v>
+      </c>
+      <c r="H535" t="n">
+        <v>4</v>
+      </c>
+      <c r="I535" t="n">
+        <v>4</v>
+      </c>
+      <c r="J535" t="n">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>1632</v>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>4</v>
+      </c>
+      <c r="E536" t="n">
+        <v>5</v>
+      </c>
+      <c r="F536" t="n">
+        <v>5</v>
+      </c>
+      <c r="G536" t="n">
+        <v>4</v>
+      </c>
+      <c r="H536" t="n">
+        <v>3</v>
+      </c>
+      <c r="I536" t="n">
+        <v>4</v>
+      </c>
+      <c r="J536" t="n">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>1747</v>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>4</v>
+      </c>
+      <c r="E537" t="n">
+        <v>5</v>
+      </c>
+      <c r="F537" t="n">
+        <v>5</v>
+      </c>
+      <c r="G537" t="n">
+        <v>5</v>
+      </c>
+      <c r="H537" t="n">
+        <v>3</v>
+      </c>
+      <c r="I537" t="n">
+        <v>4</v>
+      </c>
+      <c r="J537" t="n">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>4</v>
+      </c>
+      <c r="E538" t="n">
+        <v>4</v>
+      </c>
+      <c r="F538" t="n">
+        <v>4</v>
+      </c>
+      <c r="G538" t="n">
+        <v>3</v>
+      </c>
+      <c r="H538" t="n">
+        <v>4</v>
+      </c>
+      <c r="I538" t="n">
+        <v>4</v>
+      </c>
+      <c r="J538" t="n">
+        <v>3.833333333333333</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>4</v>
+      </c>
+      <c r="E539" t="n">
+        <v>4</v>
+      </c>
+      <c r="F539" t="n">
+        <v>4</v>
+      </c>
+      <c r="G539" t="n">
+        <v>4</v>
+      </c>
+      <c r="H539" t="n">
+        <v>3</v>
+      </c>
+      <c r="I539" t="n">
+        <v>4</v>
+      </c>
+      <c r="J539" t="n">
+        <v>3.833333333333333</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>2176</v>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>4</v>
+      </c>
+      <c r="E540" t="n">
+        <v>5</v>
+      </c>
+      <c r="F540" t="n">
+        <v>4</v>
+      </c>
+      <c r="G540" t="n">
+        <v>5</v>
+      </c>
+      <c r="H540" t="n">
+        <v>3</v>
+      </c>
+      <c r="I540" t="n">
+        <v>4</v>
+      </c>
+      <c r="J540" t="n">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
         <v>4557</v>
       </c>
-      <c r="C481" t="inlineStr">
+      <c r="C541" t="inlineStr">
         <is>
           <t>preds_ws10_st60.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
-      <c r="D481" t="n">
-        <v>3</v>
-      </c>
-      <c r="E481" t="n">
-        <v>2</v>
-      </c>
-      <c r="F481" t="n">
-        <v>2</v>
-      </c>
-      <c r="G481" t="n">
-        <v>3</v>
-      </c>
-      <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>2</v>
-      </c>
-      <c r="J481" t="n">
+      <c r="D541" t="n">
+        <v>3</v>
+      </c>
+      <c r="E541" t="n">
+        <v>2</v>
+      </c>
+      <c r="F541" t="n">
+        <v>2</v>
+      </c>
+      <c r="G541" t="n">
+        <v>3</v>
+      </c>
+      <c r="H541" t="n">
+        <v>2</v>
+      </c>
+      <c r="I541" t="n">
+        <v>2</v>
+      </c>
+      <c r="J541" t="n">
         <v>2.333333333333333</v>
       </c>
     </row>
